--- a/web_ces/Paneles/global_trimestral/input/Clasificador.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/Clasificador.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5178340cf401e55f52edc65754db13eb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f34c51a0a6f5e7009dcf60732b5bba38" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
     <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
     <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
     <xsd:element name="properties">
@@ -732,7 +732,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC086DC-C13B-4AB5-8D03-1EED5AA52344}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870E25B7-AE41-4B13-8A66-4CA6FFDDD01E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/web_ces/Paneles/global_trimestral/input/Clasificador.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/Clasificador.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5178340cf401e55f52edc65754db13eb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f34c51a0a6f5e7009dcf60732b5bba38" ns2:_="" ns3:_="">
     <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
     <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
     <xsd:element name="properties">
@@ -732,7 +732,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870E25B7-AE41-4B13-8A66-4CA6FFDDD01E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC086DC-C13B-4AB5-8D03-1EED5AA52344}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/web_ces/Paneles/global_trimestral/input/Clasificador.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/Clasificador.xlsx
@@ -512,8 +512,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5178340cf401e55f52edc65754db13eb">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f34c51a0a6f5e7009dcf60732b5bba38" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C5B9F2161CEE1040BBC03CB11300495F" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="126bfeb7ae601119bfc9c37fe78f3e1b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5dd4176-d247-4204-85b8-921214f3ccea" xmlns:ns3="359b39ce-e1f9-4933-8424-33b611e6fdcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2137ec74e9b380cd6ab08453deebfc43" ns2:_="" ns3:_="">
     <xsd:import namespace="b5dd4176-d247-4204-85b8-921214f3ccea"/>
     <xsd:import namespace="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
     <xsd:element name="properties">
@@ -732,7 +732,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFC086DC-C13B-4AB5-8D03-1EED5AA52344}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09DDB38D-3128-4461-81B1-1CEB10BE6D2D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/web_ces/Paneles/global_trimestral/input/Clasificador.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/Clasificador.xlsx
@@ -732,7 +732,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09DDB38D-3128-4461-81B1-1CEB10BE6D2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6627A41-2826-465C-80A1-E875FD8CAEFA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/web_ces/Paneles/global_trimestral/input/Clasificador.xlsx
+++ b/web_ces/Paneles/global_trimestral/input/Clasificador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsfcomar.sharepoint.com/sites/grp_ces/Documentos compartidos/CicSFE_sp/_Reportes rmd/Panel global trimestral/Archivos necesarios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsfcomar.sharepoint.com/sites/grp_ces/Documentos compartidos/CicSFE_sp/_Reportes rmd/Paneles/global_trimestral/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{AE31E10D-B244-4C2E-AB12-701A12E75CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF5F5A42-3285-4D0F-A234-224B4B152C75}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{AE31E10D-B244-4C2E-AB12-701A12E75CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A59B792B-BCE1-4607-9624-6E1B4D29E1F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clasificador" sheetId="6" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -480,13 +480,16 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B8">
+    <sortCondition ref="A3:A8"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B77">
     <cfRule type="colorScale" priority="2">
@@ -503,12 +506,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,29 +718,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B87CBDA-2902-42FF-8470-019638D1DF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6627A41-2826-465C-80A1-E875FD8CAEFA}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9CD5967-B573-48AA-87E4-4B27E0AE32FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -744,4 +735,31 @@
     <ds:schemaRef ds:uri="b5dd4176-d247-4204-85b8-921214f3ccea"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6627A41-2826-465C-80A1-E875FD8CAEFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5dd4176-d247-4204-85b8-921214f3ccea"/>
+    <ds:schemaRef ds:uri="359b39ce-e1f9-4933-8424-33b611e6fdcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B87CBDA-2902-42FF-8470-019638D1DF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>